--- a/학습결과_audio_lstm.xlsx
+++ b/학습결과_audio_lstm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_project/audio_lstm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2EF9FB-1130-144D-B39A-21F08D86D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C3A409-4D2A-6F4A-AD11-0AA3ADABB4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{2D612C08-B936-334A-9D89-A8C79B542E65}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
